--- a/fakedata1.xlsx
+++ b/fakedata1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Number</t>
   </si>
@@ -25,6 +25,9 @@
   </si>
   <si>
     <t>Random</t>
+  </si>
+  <si>
+    <t>Round</t>
   </si>
 </sst>
 </file>
@@ -363,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -381,8 +384,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -393,8 +399,12 @@
         <f>AVERAGE(A2:B2)</f>
         <v>0.91232706786645967</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>ROUND(C2,1)</f>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -405,8 +415,12 @@
         <f t="shared" ref="C3:C66" si="0">AVERAGE(A3:B3)</f>
         <v>1.065908955402207</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="1">ROUND(C3,1)</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -417,8 +431,12 @@
         <f t="shared" si="0"/>
         <v>1.6440791995531518</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -429,8 +447,12 @@
         <f t="shared" si="0"/>
         <v>2.2698713075479646</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -441,8 +463,12 @@
         <f t="shared" si="0"/>
         <v>2.7335879963361358</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -453,8 +479,12 @@
         <f t="shared" si="0"/>
         <v>3.4722597003573066</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -465,8 +495,12 @@
         <f t="shared" si="0"/>
         <v>3.8386310987590435</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -477,8 +511,12 @@
         <f t="shared" si="0"/>
         <v>4.341096112713716</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -489,8 +527,12 @@
         <f t="shared" si="0"/>
         <v>4.6376428833367243</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -501,8 +543,12 @@
         <f t="shared" si="0"/>
         <v>5.178161792888349</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -513,8 +559,12 @@
         <f t="shared" si="0"/>
         <v>5.5206351730320984</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -525,8 +575,12 @@
         <f t="shared" si="0"/>
         <v>6.3705477399062431</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -537,8 +591,12 @@
         <f t="shared" si="0"/>
         <v>6.6339188690784185</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -549,8 +607,12 @@
         <f t="shared" si="0"/>
         <v>7.4827762582526791</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -561,8 +623,12 @@
         <f t="shared" si="0"/>
         <v>7.7084822564597122</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -573,8 +639,12 @@
         <f t="shared" si="0"/>
         <v>8.0348490604650884</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -585,8 +655,12 @@
         <f t="shared" si="0"/>
         <v>8.8512495294679816</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -597,8 +671,12 @@
         <f t="shared" si="0"/>
         <v>9.0103153457300564</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -609,8 +687,12 @@
         <f t="shared" si="0"/>
         <v>9.5905066211687569</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -621,8 +703,12 @@
         <f t="shared" si="0"/>
         <v>10.459286835999606</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -633,8 +719,12 @@
         <f t="shared" si="0"/>
         <v>10.957102205031582</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -645,8 +735,12 @@
         <f t="shared" si="0"/>
         <v>11.061455536298073</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -657,8 +751,12 @@
         <f t="shared" si="0"/>
         <v>11.774263942545987</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -669,8 +767,12 @@
         <f t="shared" si="0"/>
         <v>12.047021796803186</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -681,8 +783,12 @@
         <f t="shared" si="0"/>
         <v>12.765683364246291</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -693,8 +799,12 @@
         <f t="shared" si="0"/>
         <v>13.192805086777998</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -705,8 +815,12 @@
         <f t="shared" si="0"/>
         <v>13.723429585440046</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -717,8 +831,12 @@
         <f t="shared" si="0"/>
         <v>14.055433798454262</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -729,8 +847,12 @@
         <f t="shared" si="0"/>
         <v>14.664756485101124</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -741,8 +863,12 @@
         <f t="shared" si="0"/>
         <v>15.431577002638404</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -753,8 +879,12 @@
         <f t="shared" si="0"/>
         <v>15.536182934596958</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -765,8 +895,12 @@
         <f t="shared" si="0"/>
         <v>16.247931588846463</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -777,8 +911,12 @@
         <f t="shared" si="0"/>
         <v>16.872927599200658</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -789,8 +927,12 @@
         <f t="shared" si="0"/>
         <v>17.482331243574517</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -801,8 +943,12 @@
         <f t="shared" si="0"/>
         <v>17.684134471876973</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -813,8 +959,12 @@
         <f t="shared" si="0"/>
         <v>18.087355889742526</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -825,8 +975,12 @@
         <f t="shared" si="0"/>
         <v>18.556782112306525</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -837,8 +991,12 @@
         <f t="shared" si="0"/>
         <v>19.35032730671438</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -849,8 +1007,12 @@
         <f t="shared" si="0"/>
         <v>19.735738798413202</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -861,8 +1023,12 @@
         <f t="shared" si="0"/>
         <v>20.420804353580063</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -873,8 +1039,12 @@
         <f t="shared" si="0"/>
         <v>20.532760617966574</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -885,8 +1055,12 @@
         <f t="shared" si="0"/>
         <v>21.350635325560603</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -897,8 +1071,12 @@
         <f t="shared" si="0"/>
         <v>21.944056928875671</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -909,8 +1087,12 @@
         <f t="shared" si="0"/>
         <v>22.195309009620338</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -921,8 +1103,12 @@
         <f t="shared" si="0"/>
         <v>22.617780568645358</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -933,8 +1119,12 @@
         <f t="shared" si="0"/>
         <v>23.361037206503937</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -945,8 +1135,12 @@
         <f t="shared" si="0"/>
         <v>23.564626912412827</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -957,8 +1151,12 @@
         <f t="shared" si="0"/>
         <v>24.056008685652618</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -969,8 +1167,12 @@
         <f t="shared" si="0"/>
         <v>24.957664211800946</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -981,8 +1183,12 @@
         <f t="shared" si="0"/>
         <v>25.326830001955905</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -993,8 +1199,12 @@
         <f t="shared" si="0"/>
         <v>25.802888204013477</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1005,8 +1215,12 @@
         <f t="shared" si="0"/>
         <v>26.083903619840179</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>26.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1017,8 +1231,12 @@
         <f t="shared" si="0"/>
         <v>26.556593261402121</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1029,8 +1247,12 @@
         <f t="shared" si="0"/>
         <v>27.068213641281112</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1041,8 +1263,12 @@
         <f t="shared" si="0"/>
         <v>27.89430672794257</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>27.9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1053,8 +1279,12 @@
         <f t="shared" si="0"/>
         <v>28.321586176683425</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1065,8 +1295,12 @@
         <f t="shared" si="0"/>
         <v>28.861197151433917</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1077,8 +1311,12 @@
         <f t="shared" si="0"/>
         <v>29.091657352192101</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1089,8 +1327,12 @@
         <f t="shared" si="0"/>
         <v>29.816365847611447</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1101,8 +1343,12 @@
         <f t="shared" si="0"/>
         <v>30.172733837352197</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1113,8 +1359,12 @@
         <f t="shared" si="0"/>
         <v>30.787089296750157</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1125,8 +1375,12 @@
         <f t="shared" si="0"/>
         <v>31.39650423169158</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1137,8 +1391,12 @@
         <f t="shared" si="0"/>
         <v>31.531469536416356</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1149,8 +1407,12 @@
         <f t="shared" si="0"/>
         <v>32.340801806689512</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1161,8 +1423,12 @@
         <f t="shared" si="0"/>
         <v>32.699605503336613</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <f t="shared" si="1"/>
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1170,11 +1436,15 @@
         <v>0.90674525472573497</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" si="1">AVERAGE(A67:B67)</f>
+        <f t="shared" ref="C67:C101" si="2">AVERAGE(A67:B67)</f>
         <v>33.453372627362867</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f t="shared" ref="D67:D101" si="3">ROUND(C67,1)</f>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1182,11 +1452,15 @@
         <v>0.59233845755742165</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33.796169228778709</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1194,11 +1468,15 @@
         <v>0.17565808137616812</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.087829040688085</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1206,11 +1484,15 @@
         <v>8.1504639781219246E-2</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34.540752319890608</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1218,11 +1500,15 @@
         <v>0.55748956379561021</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.278744781897807</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1230,11 +1516,15 @@
         <v>0.95637007489107795</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.978185037445542</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1242,11 +1532,15 @@
         <v>0.48443930112672628</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.242219650563364</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1254,11 +1548,15 @@
         <v>0.26053755697425196</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.630268778487128</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1266,11 +1564,15 @@
         <v>0.47501277424202293</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.237506387121009</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1278,11 +1580,15 @@
         <v>0.96859122580375623</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.984295612901882</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1290,11 +1596,15 @@
         <v>8.7013980661005963E-3</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.004350699033047</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1302,11 +1612,15 @@
         <v>0.81013098304926812</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.905065491524631</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <f t="shared" si="3"/>
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1314,11 +1628,15 @@
         <v>0.73855474863341763</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.369277374316709</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <f t="shared" si="3"/>
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1326,11 +1644,15 @@
         <v>0.36222542741711661</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.681112713708558</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <f t="shared" si="3"/>
+        <v>39.700000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1338,11 +1660,15 @@
         <v>0.99852716539188691</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40.499263582695946</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <f t="shared" si="3"/>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1350,11 +1676,15 @@
         <v>0.65462526368199636</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40.827312631840996</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <f t="shared" si="3"/>
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1362,11 +1692,15 @@
         <v>0.76237686361577417</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.381188431807885</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <f t="shared" si="3"/>
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1374,11 +1708,15 @@
         <v>9.2377834767138678E-2</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.546188917383567</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <f t="shared" si="3"/>
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1386,11 +1724,15 @@
         <v>0.53102762210487053</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.265513811052436</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <f t="shared" si="3"/>
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1398,11 +1740,15 @@
         <v>0.55365758886317196</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.776828794431587</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <f t="shared" si="3"/>
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1410,11 +1756,15 @@
         <v>0.47772242565845602</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.238861212829228</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <f t="shared" si="3"/>
+        <v>43.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1422,11 +1772,15 @@
         <v>0.7318390264354343</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.865919513217719</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <f t="shared" si="3"/>
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1434,11 +1788,15 @@
         <v>0.20939885300663363</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.104699426503316</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <f t="shared" si="3"/>
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1446,11 +1804,15 @@
         <v>0.3277020776981866</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.663851038849096</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <f t="shared" si="3"/>
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1458,11 +1820,15 @@
         <v>0.75183531560765271</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.375917657803825</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <f t="shared" si="3"/>
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1470,11 +1836,15 @@
         <v>0.12541249974403157</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45.562706249872015</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <f t="shared" si="3"/>
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1482,11 +1852,15 @@
         <v>0.12510725117712451</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46.062553625588563</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <f t="shared" si="3"/>
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1494,11 +1868,15 @@
         <v>0.27016871870714199</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46.63508435935357</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <f t="shared" si="3"/>
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1506,11 +1884,15 @@
         <v>0.72534953162443772</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.362674765812216</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <f t="shared" si="3"/>
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1518,11 +1900,15 @@
         <v>0.11173250840077364</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.555866254200389</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <f t="shared" si="3"/>
+        <v>47.6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1530,11 +1916,15 @@
         <v>0.57942695895026342</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.289713479475132</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <f t="shared" si="3"/>
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1542,11 +1932,15 @@
         <v>0.56649535960771258</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48.783247679803857</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <f t="shared" si="3"/>
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1554,11 +1948,15 @@
         <v>0.38004528850572461</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49.190022644252863</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <f t="shared" si="3"/>
+        <v>49.2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1566,11 +1964,15 @@
         <v>0.18644719083561878</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49.593223595417811</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <f t="shared" si="3"/>
+        <v>49.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1578,8 +1980,12 @@
         <v>2.0653824396654308E-2</v>
       </c>
       <c r="C101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.01032691219833</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/fakedata1.xlsx
+++ b/fakedata1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Number</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Round</t>
+  </si>
+  <si>
+    <t>Note: Random change unless C+P as plain values</t>
   </si>
 </sst>
 </file>
@@ -366,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,7 +391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -404,7 +407,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -420,7 +423,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -436,7 +439,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -452,7 +455,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -468,7 +471,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -484,7 +487,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -499,8 +502,11 @@
         <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -516,7 +522,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -532,7 +538,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -548,7 +554,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -564,7 +570,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -580,7 +586,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -596,7 +602,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -612,7 +618,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1986,6 +1992,1270 @@
       <c r="D101">
         <f t="shared" si="3"/>
         <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>0.78658830151043979</v>
+      </c>
+      <c r="C102">
+        <f>AVERAGE(A102:B102)</f>
+        <v>50.893294150755217</v>
+      </c>
+      <c r="D102">
+        <f>ROUND(C102,1)</f>
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>0.61260167891726458</v>
+      </c>
+      <c r="C103">
+        <f t="shared" ref="C103:C166" si="4">AVERAGE(A103:B103)</f>
+        <v>51.306300839458629</v>
+      </c>
+      <c r="D103">
+        <f t="shared" ref="D103:D166" si="5">ROUND(C103,1)</f>
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>8.0296386962183108E-3</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="4"/>
+        <v>51.504014819348107</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="5"/>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>0.687172742222947</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="4"/>
+        <v>52.343586371111471</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="5"/>
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>0.17681822114526369</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="4"/>
+        <v>52.588409110572634</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="5"/>
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>0.31171206392354589</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="4"/>
+        <v>53.155856031961775</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="5"/>
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>0.14638517800448325</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="4"/>
+        <v>53.57319258900224</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="5"/>
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>0.43359419086263484</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="4"/>
+        <v>54.216797095431318</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="5"/>
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>0.24280752149891149</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="4"/>
+        <v>54.621403760749459</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="5"/>
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>0.79312244300378798</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="4"/>
+        <v>55.396561221501891</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="5"/>
+        <v>55.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>0.3180296446132177</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="4"/>
+        <v>55.659014822306609</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="5"/>
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>0.42096283781520305</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="4"/>
+        <v>56.210481418907598</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="5"/>
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>0.74448722725120819</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="4"/>
+        <v>56.872243613625606</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="5"/>
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>0.68260675845268914</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="4"/>
+        <v>57.341303379226346</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="5"/>
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>6.2231858790775862E-2</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="4"/>
+        <v>57.531115929395391</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="5"/>
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>0.24530938602644359</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="4"/>
+        <v>58.122654693013224</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="5"/>
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>0.77895033453211948</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="4"/>
+        <v>58.889475167266063</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="5"/>
+        <v>58.9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>0.98393783046684413</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="4"/>
+        <v>59.491968915233421</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="5"/>
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>0.36000033319658975</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="4"/>
+        <v>59.680000166598298</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="5"/>
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>0.65282266359644914</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="4"/>
+        <v>60.326411331798226</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="5"/>
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>0.66218725428581349</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="4"/>
+        <v>60.831093627142906</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="5"/>
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>0.86310234117694151</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="4"/>
+        <v>61.43155117058847</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="5"/>
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>0.70271541119873659</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="4"/>
+        <v>61.851357705599369</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="5"/>
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>0.17753101513401315</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="4"/>
+        <v>62.088765507567004</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="5"/>
+        <v>62.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>0.72727112010366568</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="4"/>
+        <v>62.863635560051833</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="5"/>
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>8.1860688623235367E-3</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="4"/>
+        <v>63.004093034431165</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>0.58501898070439051</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="4"/>
+        <v>63.792509490352195</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="5"/>
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>0.59372507846384726</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="4"/>
+        <v>64.296862539231924</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="5"/>
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>0.38611875672877582</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="4"/>
+        <v>64.693059378364381</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="5"/>
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>5.3311335897011647E-3</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="4"/>
+        <v>65.002665566794846</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>0.63574614800691354</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="4"/>
+        <v>65.817873074003458</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="5"/>
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>0.27011934168892804</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="4"/>
+        <v>66.13505967084447</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="5"/>
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>0.91127250464080589</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="4"/>
+        <v>66.955636252320403</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>0.6289044932184964</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="4"/>
+        <v>67.31445224660925</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="5"/>
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>0.1834360698425388</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="4"/>
+        <v>67.591718034921271</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="5"/>
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>0.99515692453088433</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="4"/>
+        <v>68.497578462265437</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="5"/>
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>0.65909297819516666</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="4"/>
+        <v>68.829546489097581</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="5"/>
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>0.53296013679899823</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="4"/>
+        <v>69.266480068399503</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="5"/>
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>0.14300546196063335</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="4"/>
+        <v>69.571502730980313</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="5"/>
+        <v>69.599999999999994</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>1.991220831522722E-2</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="4"/>
+        <v>70.00995610415761</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>0.22314865982184828</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="4"/>
+        <v>70.611574329910923</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="5"/>
+        <v>70.599999999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>0.79570258329452592</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="4"/>
+        <v>71.397851291647257</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="5"/>
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>0.33917782571225019</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="4"/>
+        <v>71.669588912856128</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="5"/>
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>0.61290680559460742</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="4"/>
+        <v>72.306453402797302</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="5"/>
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>0.83979458526314921</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="4"/>
+        <v>72.919897292631575</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="5"/>
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>0.95455324846737455</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="4"/>
+        <v>73.477276624233681</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="5"/>
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>0.92851429649964068</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="4"/>
+        <v>73.964257148249814</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>0.5118111498695791</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="4"/>
+        <v>74.255905574934786</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="5"/>
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>0.96970354579394835</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="4"/>
+        <v>74.984851772896974</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>0.58119272813842238</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="4"/>
+        <v>75.290596364069216</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="5"/>
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>0.81319398163881129</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="4"/>
+        <v>75.906596990819409</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="5"/>
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>0.66407838436508349</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="4"/>
+        <v>76.332039192182535</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="5"/>
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>0.6444692683929929</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="4"/>
+        <v>76.822234634196491</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="5"/>
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>0.95556855046768163</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="4"/>
+        <v>77.477784275233844</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="5"/>
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>0.11251398248173072</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="4"/>
+        <v>77.556256991240872</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="5"/>
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5.9539268652768707E-2</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="4"/>
+        <v>78.029769634326385</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="5"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>0.50268012124814399</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="4"/>
+        <v>78.751340060624074</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="5"/>
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>0.56747583395062062</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="4"/>
+        <v>79.283737916975312</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="5"/>
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>0.65386170025699841</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="4"/>
+        <v>79.826930850128505</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="5"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>0.48621352685406027</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="4"/>
+        <v>80.243106763427036</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="5"/>
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>0.55458843667964564</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="4"/>
+        <v>80.777294218339819</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="5"/>
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>0.78194572953615193</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="4"/>
+        <v>81.390972864768074</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="5"/>
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>0.75203376534452948</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="4"/>
+        <v>81.876016882672261</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="5"/>
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>0.543647395965001</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="4"/>
+        <v>82.271823697982498</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="5"/>
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>0.51910763403144522</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="4"/>
+        <v>82.759553817015728</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="5"/>
+        <v>82.8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>0.26881262078590307</v>
+      </c>
+      <c r="C167">
+        <f t="shared" ref="C167:C180" si="6">AVERAGE(A167:B167)</f>
+        <v>83.134406310392947</v>
+      </c>
+      <c r="D167">
+        <f t="shared" ref="D167:D180" si="7">ROUND(C167,1)</f>
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>0.74680460860928166</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="6"/>
+        <v>83.873402304304648</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="7"/>
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>0.36260430514730257</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="6"/>
+        <v>84.18130215257365</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="7"/>
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>0.29951785796375341</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="6"/>
+        <v>84.649758928981882</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="7"/>
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>0.50624372516215843</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="6"/>
+        <v>85.253121862581082</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="7"/>
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>0.89511967826663486</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="6"/>
+        <v>85.947559839133319</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="7"/>
+        <v>85.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>0.69651412227779907</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="6"/>
+        <v>86.348257061138895</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="7"/>
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>0.72145158179279578</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="6"/>
+        <v>86.860725790896396</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="7"/>
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>1.3322234480771633E-2</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="6"/>
+        <v>87.006661117240384</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>0.75771579835938796</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="6"/>
+        <v>87.878857899179692</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="7"/>
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>0.85936665697747505</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="6"/>
+        <v>88.429683328488736</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="7"/>
+        <v>88.4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>0.68795318661125449</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="6"/>
+        <v>88.843976593305626</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="7"/>
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>0.84128338009213477</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="6"/>
+        <v>89.420641690046068</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="7"/>
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>0.68321510790501594</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="6"/>
+        <v>89.841607553952514</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="7"/>
+        <v>89.8</v>
       </c>
     </row>
   </sheetData>

--- a/fakedata1.xlsx
+++ b/fakedata1.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Number</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Round</t>
+  </si>
+  <si>
+    <t>&gt;5</t>
   </si>
 </sst>
 </file>
@@ -366,15 +369,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +390,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -403,8 +409,12 @@
         <f>ROUND(C2,1)</f>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="b">
+        <f>D2&gt;5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -419,8 +429,12 @@
         <f t="shared" ref="D3:D66" si="1">ROUND(C3,1)</f>
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E66" si="2">D3&gt;5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -435,8 +449,12 @@
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -451,8 +469,12 @@
         <f t="shared" si="1"/>
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -467,8 +489,12 @@
         <f t="shared" si="1"/>
         <v>2.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -483,8 +509,12 @@
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -499,8 +529,12 @@
         <f t="shared" si="1"/>
         <v>3.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -515,8 +549,12 @@
         <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -531,8 +569,12 @@
         <f t="shared" si="1"/>
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -547,8 +589,12 @@
         <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -563,8 +609,12 @@
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -579,8 +629,12 @@
         <f t="shared" si="1"/>
         <v>6.4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -595,8 +649,12 @@
         <f t="shared" si="1"/>
         <v>6.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -611,8 +669,12 @@
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -627,8 +689,12 @@
         <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -643,8 +709,12 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -659,8 +729,12 @@
         <f t="shared" si="1"/>
         <v>8.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -675,8 +749,12 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -691,8 +769,12 @@
         <f t="shared" si="1"/>
         <v>9.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -707,8 +789,12 @@
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -723,8 +809,12 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -739,8 +829,12 @@
         <f t="shared" si="1"/>
         <v>11.1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -755,8 +849,12 @@
         <f t="shared" si="1"/>
         <v>11.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -771,8 +869,12 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -787,8 +889,12 @@
         <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -803,8 +909,12 @@
         <f t="shared" si="1"/>
         <v>13.2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -819,8 +929,12 @@
         <f t="shared" si="1"/>
         <v>13.7</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -835,8 +949,12 @@
         <f t="shared" si="1"/>
         <v>14.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -851,8 +969,12 @@
         <f t="shared" si="1"/>
         <v>14.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -867,8 +989,12 @@
         <f t="shared" si="1"/>
         <v>15.4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -883,8 +1009,12 @@
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -899,8 +1029,12 @@
         <f t="shared" si="1"/>
         <v>16.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -915,8 +1049,12 @@
         <f t="shared" si="1"/>
         <v>16.899999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -931,8 +1069,12 @@
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -947,8 +1089,12 @@
         <f t="shared" si="1"/>
         <v>17.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -963,8 +1109,12 @@
         <f t="shared" si="1"/>
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -979,8 +1129,12 @@
         <f t="shared" si="1"/>
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -995,8 +1149,12 @@
         <f t="shared" si="1"/>
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1011,8 +1169,12 @@
         <f t="shared" si="1"/>
         <v>19.7</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1027,8 +1189,12 @@
         <f t="shared" si="1"/>
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1043,8 +1209,12 @@
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1059,8 +1229,12 @@
         <f t="shared" si="1"/>
         <v>21.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1075,8 +1249,12 @@
         <f t="shared" si="1"/>
         <v>21.9</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1091,8 +1269,12 @@
         <f t="shared" si="1"/>
         <v>22.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1107,8 +1289,12 @@
         <f t="shared" si="1"/>
         <v>22.6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1123,8 +1309,12 @@
         <f t="shared" si="1"/>
         <v>23.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1139,8 +1329,12 @@
         <f t="shared" si="1"/>
         <v>23.6</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1155,8 +1349,12 @@
         <f t="shared" si="1"/>
         <v>24.1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1171,8 +1369,12 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1187,8 +1389,12 @@
         <f t="shared" si="1"/>
         <v>25.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1203,8 +1409,12 @@
         <f t="shared" si="1"/>
         <v>25.8</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1219,8 +1429,12 @@
         <f t="shared" si="1"/>
         <v>26.1</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1235,8 +1449,12 @@
         <f t="shared" si="1"/>
         <v>26.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1251,8 +1469,12 @@
         <f t="shared" si="1"/>
         <v>27.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1267,8 +1489,12 @@
         <f t="shared" si="1"/>
         <v>27.9</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1283,8 +1509,12 @@
         <f t="shared" si="1"/>
         <v>28.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1299,8 +1529,12 @@
         <f t="shared" si="1"/>
         <v>28.9</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1315,8 +1549,12 @@
         <f t="shared" si="1"/>
         <v>29.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1331,8 +1569,12 @@
         <f t="shared" si="1"/>
         <v>29.8</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1347,8 +1589,12 @@
         <f t="shared" si="1"/>
         <v>30.2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1363,8 +1609,12 @@
         <f t="shared" si="1"/>
         <v>30.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1379,8 +1629,12 @@
         <f t="shared" si="1"/>
         <v>31.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1395,8 +1649,12 @@
         <f t="shared" si="1"/>
         <v>31.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1411,8 +1669,12 @@
         <f t="shared" si="1"/>
         <v>32.299999999999997</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1427,8 +1689,12 @@
         <f t="shared" si="1"/>
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1436,15 +1702,19 @@
         <v>0.90674525472573497</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C101" si="2">AVERAGE(A67:B67)</f>
+        <f t="shared" ref="C67:C101" si="3">AVERAGE(A67:B67)</f>
         <v>33.453372627362867</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D101" si="3">ROUND(C67,1)</f>
+        <f t="shared" ref="D67:D101" si="4">ROUND(C67,1)</f>
         <v>33.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="b">
+        <f t="shared" ref="E67:E101" si="5">D67&gt;5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -1452,15 +1722,19 @@
         <v>0.59233845755742165</v>
       </c>
       <c r="C68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33.796169228778709</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.799999999999997</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1468,15 +1742,19 @@
         <v>0.17565808137616812</v>
       </c>
       <c r="C69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.087829040688085</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1484,15 +1762,19 @@
         <v>8.1504639781219246E-2</v>
       </c>
       <c r="C70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.540752319890608</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1500,15 +1782,19 @@
         <v>0.55748956379561021</v>
       </c>
       <c r="C71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.278744781897807</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1516,15 +1802,19 @@
         <v>0.95637007489107795</v>
       </c>
       <c r="C72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>35.978185037445542</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1532,15 +1822,19 @@
         <v>0.48443930112672628</v>
       </c>
       <c r="C73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.242219650563364</v>
       </c>
       <c r="D73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.200000000000003</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1548,15 +1842,19 @@
         <v>0.26053755697425196</v>
       </c>
       <c r="C74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36.630268778487128</v>
       </c>
       <c r="D74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1564,15 +1862,19 @@
         <v>0.47501277424202293</v>
       </c>
       <c r="C75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.237506387121009</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.200000000000003</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1580,15 +1882,19 @@
         <v>0.96859122580375623</v>
       </c>
       <c r="C76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.984295612901882</v>
       </c>
       <c r="D76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1596,15 +1902,19 @@
         <v>8.7013980661005963E-3</v>
       </c>
       <c r="C77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.004350699033047</v>
       </c>
       <c r="D77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1612,15 +1922,19 @@
         <v>0.81013098304926812</v>
       </c>
       <c r="C78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.905065491524631</v>
       </c>
       <c r="D78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1628,15 +1942,19 @@
         <v>0.73855474863341763</v>
       </c>
       <c r="C79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.369277374316709</v>
       </c>
       <c r="D79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1644,15 +1962,19 @@
         <v>0.36222542741711661</v>
       </c>
       <c r="C80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.681112713708558</v>
       </c>
       <c r="D80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.700000000000003</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1660,15 +1982,19 @@
         <v>0.99852716539188691</v>
       </c>
       <c r="C81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.499263582695946</v>
       </c>
       <c r="D81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1676,15 +2002,19 @@
         <v>0.65462526368199636</v>
       </c>
       <c r="C82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.827312631840996</v>
       </c>
       <c r="D82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1692,15 +2022,19 @@
         <v>0.76237686361577417</v>
       </c>
       <c r="C83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.381188431807885</v>
       </c>
       <c r="D83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41.4</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1708,15 +2042,19 @@
         <v>9.2377834767138678E-2</v>
       </c>
       <c r="C84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.546188917383567</v>
       </c>
       <c r="D84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1724,15 +2062,19 @@
         <v>0.53102762210487053</v>
       </c>
       <c r="C85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.265513811052436</v>
       </c>
       <c r="D85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.3</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1740,15 +2082,19 @@
         <v>0.55365758886317196</v>
       </c>
       <c r="C86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.776828794431587</v>
       </c>
       <c r="D86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42.8</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1756,15 +2102,19 @@
         <v>0.47772242565845602</v>
       </c>
       <c r="C87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.238861212829228</v>
       </c>
       <c r="D87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43.2</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -1772,15 +2122,19 @@
         <v>0.7318390264354343</v>
       </c>
       <c r="C88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>43.865919513217719</v>
       </c>
       <c r="D88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -1788,15 +2142,19 @@
         <v>0.20939885300663363</v>
       </c>
       <c r="C89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44.104699426503316</v>
       </c>
       <c r="D89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1804,15 +2162,19 @@
         <v>0.3277020776981866</v>
       </c>
       <c r="C90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44.663851038849096</v>
       </c>
       <c r="D90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1820,15 +2182,19 @@
         <v>0.75183531560765271</v>
       </c>
       <c r="C91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.375917657803825</v>
       </c>
       <c r="D91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.4</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1836,15 +2202,19 @@
         <v>0.12541249974403157</v>
       </c>
       <c r="C92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.562706249872015</v>
       </c>
       <c r="D92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45.6</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -1852,15 +2222,19 @@
         <v>0.12510725117712451</v>
       </c>
       <c r="C93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46.062553625588563</v>
       </c>
       <c r="D93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.1</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -1868,15 +2242,19 @@
         <v>0.27016871870714199</v>
       </c>
       <c r="C94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46.63508435935357</v>
       </c>
       <c r="D94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46.6</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -1884,15 +2262,19 @@
         <v>0.72534953162443772</v>
       </c>
       <c r="C95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.362674765812216</v>
       </c>
       <c r="D95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1900,15 +2282,19 @@
         <v>0.11173250840077364</v>
       </c>
       <c r="C96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47.555866254200389</v>
       </c>
       <c r="D96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47.6</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -1916,15 +2302,19 @@
         <v>0.57942695895026342</v>
       </c>
       <c r="C97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48.289713479475132</v>
       </c>
       <c r="D97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.3</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -1932,15 +2322,19 @@
         <v>0.56649535960771258</v>
       </c>
       <c r="C98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48.783247679803857</v>
       </c>
       <c r="D98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.8</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -1948,15 +2342,19 @@
         <v>0.38004528850572461</v>
       </c>
       <c r="C99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.190022644252863</v>
       </c>
       <c r="D99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.2</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -1964,15 +2362,19 @@
         <v>0.18644719083561878</v>
       </c>
       <c r="C100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.593223595417811</v>
       </c>
       <c r="D100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49.6</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -1980,12 +2382,16 @@
         <v>2.0653824396654308E-2</v>
       </c>
       <c r="C101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.01032691219833</v>
       </c>
       <c r="D101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
+      </c>
+      <c r="E101" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
